--- a/Project_group_allocation.xlsx
+++ b/Project_group_allocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chitkara_git_repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DB2D7C-A35F-4ADF-B58C-C2AECBAB4EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82696E34-7B24-4342-A628-E7232EBE2B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{484FC0A7-DBD8-4689-B2B0-5171408B2604}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{484FC0A7-DBD8-4689-B2B0-5171408B2604}"/>
   </bookViews>
   <sheets>
     <sheet name="G31" sheetId="4" r:id="rId1"/>
@@ -340,9 +340,6 @@
   </si>
   <si>
     <t>Big Boss Voting Zone</t>
-  </si>
-  <si>
-    <t>Isha Jain</t>
   </si>
   <si>
     <t>Ketan</t>
@@ -905,6 +902,9 @@
   <si>
     <t>AASTIK</t>
   </si>
+  <si>
+    <t>. Online Auction Platform</t>
+  </si>
 </sst>
 </file>
 
@@ -1412,6 +1412,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1429,24 +1435,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1481,11 +1469,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1523,34 +1526,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1574,23 +1574,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1922,33 +1922,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:5" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1956,17 +1956,17 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
@@ -1985,7 +1985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -1993,16 +1993,16 @@
         <v>2410993120</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>2</v>
       </c>
@@ -2010,12 +2010,12 @@
         <v>2410992895</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="34"/>
-    </row>
-    <row r="9" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>3</v>
       </c>
@@ -2023,12 +2023,12 @@
         <v>2410993096</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="35"/>
-    </row>
-    <row r="10" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>4</v>
       </c>
@@ -2036,16 +2036,16 @@
         <v>2410993154</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <v>5</v>
       </c>
@@ -2053,12 +2053,12 @@
         <v>2410993115</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>6</v>
       </c>
@@ -2066,12 +2066,12 @@
         <v>2410993152</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="35"/>
-    </row>
-    <row r="13" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>7</v>
       </c>
@@ -2079,16 +2079,16 @@
         <v>2410993119</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13" s="35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>8</v>
       </c>
@@ -2096,12 +2096,12 @@
         <v>2410993141</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="15" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <v>9</v>
       </c>
@@ -2109,12 +2109,12 @@
         <v>2410993126</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="35"/>
-    </row>
-    <row r="16" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="37"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>10</v>
       </c>
@@ -2122,16 +2122,16 @@
         <v>2410993112</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16">
         <v>11</v>
       </c>
@@ -2139,12 +2139,12 @@
         <v>2410993103</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="34"/>
-    </row>
-    <row r="18" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="36"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>12</v>
       </c>
@@ -2152,12 +2152,12 @@
         <v>2410993091</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="35"/>
-    </row>
-    <row r="19" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16">
         <v>13</v>
       </c>
@@ -2165,16 +2165,16 @@
         <v>2410993163</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19" s="35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>14</v>
       </c>
@@ -2182,12 +2182,12 @@
         <v>2410993161</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="34"/>
-    </row>
-    <row r="21" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="36"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="16">
         <v>15</v>
       </c>
@@ -2195,12 +2195,12 @@
         <v>2410993097</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="35"/>
-    </row>
-    <row r="22" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="37"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>16</v>
       </c>
@@ -2208,13 +2208,13 @@
         <v>2410993117</v>
       </c>
       <c r="C22" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>130</v>
+      <c r="E22" s="35" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2225,12 +2225,12 @@
         <v>2410993151</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="36"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>18</v>
       </c>
@@ -2238,10 +2238,10 @@
         <v>2410993084</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="35"/>
+        <v>132</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16">
@@ -2251,13 +2251,13 @@
         <v>2410993123</v>
       </c>
       <c r="C25" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>134</v>
+      <c r="E25" s="35" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2268,12 +2268,12 @@
         <v>2410993130</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="D26" s="54"/>
+      <c r="E26" s="36"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16">
         <v>21</v>
       </c>
@@ -2281,12 +2281,12 @@
         <v>2410993086</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="35"/>
-    </row>
-    <row r="28" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+      <c r="D27" s="55"/>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16">
         <v>22</v>
       </c>
@@ -2294,16 +2294,16 @@
         <v>2410993092</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16">
         <v>23</v>
       </c>
@@ -2311,12 +2311,12 @@
         <v>2410993148</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="34"/>
-    </row>
-    <row r="30" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16">
         <v>24</v>
       </c>
@@ -2324,12 +2324,12 @@
         <v>2410993142</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="35"/>
-    </row>
-    <row r="31" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16">
         <v>25</v>
       </c>
@@ -2337,13 +2337,13 @@
         <v>2410993111</v>
       </c>
       <c r="C31" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>141</v>
+      <c r="E31" s="35" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2354,10 +2354,10 @@
         <v>2410993088</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="34"/>
+        <v>142</v>
+      </c>
+      <c r="D32" s="54"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16">
@@ -2367,12 +2367,12 @@
         <v>2410993116</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="35"/>
-    </row>
-    <row r="34" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+      <c r="D33" s="55"/>
+      <c r="E33" s="37"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16">
         <v>28</v>
       </c>
@@ -2380,13 +2380,13 @@
         <v>2410993102</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="33" t="s">
-        <v>145</v>
+      <c r="E34" s="35" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2397,10 +2397,10 @@
         <v>2410993089</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="34"/>
+        <v>145</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="36"/>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16">
@@ -2410,12 +2410,12 @@
         <v>2410993164</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="35"/>
-    </row>
-    <row r="37" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="37"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="16">
         <v>31</v>
       </c>
@@ -2423,16 +2423,16 @@
         <v>2410993118</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16">
         <v>32</v>
       </c>
@@ -2440,12 +2440,12 @@
         <v>2410993158</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="34"/>
-    </row>
-    <row r="39" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="36"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16">
         <v>33</v>
       </c>
@@ -2453,12 +2453,12 @@
         <v>2410993121</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="35"/>
-    </row>
-    <row r="40" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="37"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16">
         <v>34</v>
       </c>
@@ -2466,16 +2466,16 @@
         <v>2410993125</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="D40" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16">
         <v>35</v>
       </c>
@@ -2483,10 +2483,10 @@
         <v>2410993093</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="34"/>
+        <v>151</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16">
@@ -2496,12 +2496,12 @@
         <v>2410993135</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="35"/>
-    </row>
-    <row r="43" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="37"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16">
         <v>37</v>
       </c>
@@ -2509,16 +2509,16 @@
         <v>2410993105</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D43" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="33" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E43" s="35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16">
         <v>38</v>
       </c>
@@ -2526,10 +2526,10 @@
         <v>2410993133</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="34"/>
+        <v>154</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="36"/>
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16">
@@ -2539,12 +2539,12 @@
         <v>2410993098</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="35"/>
-    </row>
-    <row r="46" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="37"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16">
         <v>40</v>
       </c>
@@ -2552,13 +2552,13 @@
         <v>2410993101</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="33" t="s">
-        <v>157</v>
+      <c r="E46" s="35" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2569,12 +2569,12 @@
         <v>2410993083</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="34"/>
-    </row>
-    <row r="48" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="36"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16">
         <v>42</v>
       </c>
@@ -2582,12 +2582,12 @@
         <v>2410993144</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="35"/>
-    </row>
-    <row r="49" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="37"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16">
         <v>43</v>
       </c>
@@ -2595,16 +2595,16 @@
         <v>2410993136</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E49" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="16">
         <v>44</v>
       </c>
@@ -2612,10 +2612,10 @@
         <v>2410993132</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="34"/>
+        <v>160</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="16">
@@ -2625,10 +2625,10 @@
         <v>2410993127</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="35"/>
+        <v>161</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="37"/>
     </row>
     <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16">
@@ -2638,13 +2638,13 @@
         <v>2410993137</v>
       </c>
       <c r="C52" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>163</v>
+      <c r="E52" s="35" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2657,10 +2657,10 @@
       <c r="C53" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="34"/>
-    </row>
-    <row r="54" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D53" s="33"/>
+      <c r="E53" s="36"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="16">
         <v>48</v>
       </c>
@@ -2668,12 +2668,12 @@
         <v>2410993082</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" s="32"/>
-      <c r="E54" s="35"/>
-    </row>
-    <row r="55" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="37"/>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="16">
         <v>49</v>
       </c>
@@ -2681,13 +2681,13 @@
         <v>2410993128</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E55" s="33" t="s">
-        <v>166</v>
+      <c r="E55" s="35" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2698,12 +2698,12 @@
         <v>2410993100</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="34"/>
-    </row>
-    <row r="57" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="36"/>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16">
         <v>51</v>
       </c>
@@ -2711,12 +2711,12 @@
         <v>2410993146</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="35"/>
-    </row>
-    <row r="58" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+      <c r="D57" s="34"/>
+      <c r="E57" s="37"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="16">
         <v>52</v>
       </c>
@@ -2724,16 +2724,16 @@
         <v>2410993122</v>
       </c>
       <c r="C58" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="D58" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E58" s="35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="16">
         <v>53</v>
       </c>
@@ -2741,12 +2741,12 @@
         <v>2410993110</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="34"/>
-    </row>
-    <row r="60" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+      <c r="D59" s="33"/>
+      <c r="E59" s="36"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16">
         <v>54</v>
       </c>
@@ -2754,12 +2754,12 @@
         <v>2410993157</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60" s="32"/>
-      <c r="E60" s="35"/>
-    </row>
-    <row r="61" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="37"/>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="16">
         <v>55</v>
       </c>
@@ -2767,16 +2767,16 @@
         <v>2410993153</v>
       </c>
       <c r="C61" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="D61" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E61" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="16">
         <v>57</v>
       </c>
@@ -2784,12 +2784,12 @@
         <v>2410993099</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="35"/>
-    </row>
-    <row r="63" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+      <c r="D62" s="55"/>
+      <c r="E62" s="37"/>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="16">
         <v>58</v>
       </c>
@@ -2797,13 +2797,13 @@
         <v>2410993160</v>
       </c>
       <c r="C63" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="D63" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>176</v>
+      <c r="E63" s="35" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2814,12 +2814,12 @@
         <v>2410993139</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D64" s="31"/>
-      <c r="E64" s="34"/>
-    </row>
-    <row r="65" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+      <c r="D64" s="33"/>
+      <c r="E64" s="36"/>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="16">
         <v>60</v>
       </c>
@@ -2827,12 +2827,12 @@
         <v>2410993114</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="35"/>
-    </row>
-    <row r="66" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+      <c r="D65" s="34"/>
+      <c r="E65" s="37"/>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="16">
         <v>61</v>
       </c>
@@ -2840,16 +2840,16 @@
         <v>2410993113</v>
       </c>
       <c r="C66" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="D66" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E66" s="35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="16">
         <v>62</v>
       </c>
@@ -2857,12 +2857,12 @@
         <v>2410993094</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="34"/>
-    </row>
-    <row r="68" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+      <c r="D67" s="57"/>
+      <c r="E67" s="36"/>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="16">
         <v>63</v>
       </c>
@@ -2870,12 +2870,12 @@
         <v>2410993155</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D68" s="57"/>
-      <c r="E68" s="35"/>
-    </row>
-    <row r="69" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+      <c r="D68" s="58"/>
+      <c r="E68" s="37"/>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="16">
         <v>64</v>
       </c>
@@ -2883,16 +2883,16 @@
         <v>2410993143</v>
       </c>
       <c r="C69" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="D69" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E69" s="35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="16">
         <v>65</v>
       </c>
@@ -2900,12 +2900,12 @@
         <v>2410992597</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D70" s="56"/>
-      <c r="E70" s="34"/>
-    </row>
-    <row r="71" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+      <c r="D70" s="57"/>
+      <c r="E70" s="36"/>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="16">
         <v>66</v>
       </c>
@@ -2915,10 +2915,10 @@
       <c r="C71" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="57"/>
-      <c r="E71" s="35"/>
-    </row>
-    <row r="72" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D71" s="58"/>
+      <c r="E71" s="37"/>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="16">
         <v>67</v>
       </c>
@@ -2926,16 +2926,16 @@
         <v>2410993106</v>
       </c>
       <c r="C72" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="D72" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E72" s="35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="16">
         <v>68</v>
       </c>
@@ -2943,10 +2943,10 @@
         <v>2410993162</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D73" s="56"/>
-      <c r="E73" s="34"/>
+        <v>188</v>
+      </c>
+      <c r="D73" s="57"/>
+      <c r="E73" s="36"/>
     </row>
     <row r="74" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="16">
@@ -2956,12 +2956,12 @@
         <v>2410993131</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D74" s="57"/>
-      <c r="E74" s="35"/>
-    </row>
-    <row r="75" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="D74" s="58"/>
+      <c r="E74" s="37"/>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="16">
         <v>70</v>
       </c>
@@ -2969,16 +2969,16 @@
         <v>2410993159</v>
       </c>
       <c r="C75" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="E75" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="E75" s="59" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="16">
         <v>71</v>
       </c>
@@ -2986,10 +2986,10 @@
         <v>2410993107</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D76" s="58"/>
-      <c r="E76" s="60"/>
+        <v>192</v>
+      </c>
+      <c r="D76" s="59"/>
+      <c r="E76" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="53">
@@ -3039,13 +3039,13 @@
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3053,10 +3053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45B01C5-DCC2-471E-8ACC-BBB0766321F9}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3069,13 +3069,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
@@ -3097,13 +3097,13 @@
       <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -3125,13 +3125,13 @@
       <c r="Z2" s="11"/>
     </row>
     <row r="3" spans="1:26" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -3155,11 +3155,11 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -3183,13 +3183,13 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -3213,8 +3213,8 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="1:26" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3243,17 +3243,17 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -3276,7 +3276,7 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
     </row>
-    <row r="8" spans="1:26" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -3314,7 +3314,7 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
     </row>
-    <row r="9" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -3324,10 +3324,10 @@
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="35" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="11"/>
@@ -3352,7 +3352,7 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
     </row>
-    <row r="10" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -3362,8 +3362,8 @@
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="36"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -3396,8 +3396,8 @@
       <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="35"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -3430,8 +3430,10 @@
       <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="87"/>
+      <c r="D12" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="72"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -3454,7 +3456,7 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
     </row>
-    <row r="13" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>6</v>
       </c>
@@ -3464,8 +3466,8 @@
       <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="88"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="73"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -3488,7 +3490,7 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
     </row>
-    <row r="14" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>7</v>
       </c>
@@ -3498,10 +3500,10 @@
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="35" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="11"/>
@@ -3526,7 +3528,7 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
     </row>
-    <row r="15" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>8</v>
       </c>
@@ -3536,8 +3538,8 @@
       <c r="C15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -3570,8 +3572,8 @@
       <c r="C16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="35"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -3604,10 +3606,10 @@
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="35" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="11"/>
@@ -3642,8 +3644,8 @@
       <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -3676,8 +3678,8 @@
       <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="35"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -3710,10 +3712,10 @@
       <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="35" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="11"/>
@@ -3738,7 +3740,7 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
     </row>
-    <row r="21" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>14</v>
       </c>
@@ -3748,8 +3750,8 @@
       <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="34"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -3772,7 +3774,7 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
     </row>
-    <row r="22" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>15</v>
       </c>
@@ -3782,8 +3784,8 @@
       <c r="C22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="35"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -3806,7 +3808,7 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
     </row>
-    <row r="23" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>16</v>
       </c>
@@ -3816,10 +3818,10 @@
       <c r="C23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="35" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="11"/>
@@ -3854,8 +3856,8 @@
       <c r="C24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="34"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -3878,7 +3880,7 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
     </row>
-    <row r="25" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>18</v>
       </c>
@@ -3888,8 +3890,8 @@
       <c r="C25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="35"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -3922,10 +3924,10 @@
       <c r="C26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="11"/>
@@ -3960,8 +3962,8 @@
       <c r="C27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="34"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -3994,8 +3996,8 @@
       <c r="C28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="35"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -4018,7 +4020,7 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
     </row>
-    <row r="29" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>22</v>
       </c>
@@ -4028,10 +4030,10 @@
       <c r="C29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="35" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="11"/>
@@ -4056,7 +4058,7 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
     </row>
-    <row r="30" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>23</v>
       </c>
@@ -4066,8 +4068,8 @@
       <c r="C30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="34"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -4100,8 +4102,8 @@
       <c r="C31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="35"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -4134,10 +4136,10 @@
       <c r="C32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="35" t="s">
         <v>42</v>
       </c>
       <c r="F32" s="11"/>
@@ -4162,7 +4164,7 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
     </row>
-    <row r="33" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>26</v>
       </c>
@@ -4172,8 +4174,8 @@
       <c r="C33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="34"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -4206,8 +4208,8 @@
       <c r="C34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="35"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -4230,7 +4232,7 @@
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
     </row>
-    <row r="35" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>28</v>
       </c>
@@ -4240,10 +4242,10 @@
       <c r="C35" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="35" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="11"/>
@@ -4268,7 +4270,7 @@
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
     </row>
-    <row r="36" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>29</v>
       </c>
@@ -4278,8 +4280,8 @@
       <c r="C36" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="34"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -4302,7 +4304,7 @@
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
     </row>
-    <row r="37" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>30</v>
       </c>
@@ -4312,8 +4314,8 @@
       <c r="C37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="35"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="37"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -4336,7 +4338,7 @@
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
     </row>
-    <row r="38" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>31</v>
       </c>
@@ -4346,10 +4348,10 @@
       <c r="C38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="35" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="11"/>
@@ -4374,7 +4376,7 @@
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
     </row>
-    <row r="39" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>32</v>
       </c>
@@ -4384,8 +4386,8 @@
       <c r="C39" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="34"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -4408,7 +4410,7 @@
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
     </row>
-    <row r="40" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>33</v>
       </c>
@@ -4418,8 +4420,8 @@
       <c r="C40" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="35"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -4442,7 +4444,7 @@
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
     </row>
-    <row r="41" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>34</v>
       </c>
@@ -4452,10 +4454,10 @@
       <c r="C41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="74" t="s">
         <v>54</v>
       </c>
       <c r="F41" s="11"/>
@@ -4490,8 +4492,8 @@
       <c r="C42" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="37"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="75"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -4524,8 +4526,8 @@
       <c r="C43" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="38"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="76"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -4548,7 +4550,7 @@
       <c r="Y43" s="11"/>
       <c r="Z43" s="11"/>
     </row>
-    <row r="44" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>37</v>
       </c>
@@ -4558,10 +4560,10 @@
       <c r="C44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="74" t="s">
         <v>58</v>
       </c>
       <c r="F44" s="11"/>
@@ -4586,7 +4588,7 @@
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
     </row>
-    <row r="45" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>38</v>
       </c>
@@ -4596,8 +4598,8 @@
       <c r="C45" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="37"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="75"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -4620,7 +4622,7 @@
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
     </row>
-    <row r="46" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>39</v>
       </c>
@@ -4630,8 +4632,8 @@
       <c r="C46" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="38"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="76"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -4654,7 +4656,7 @@
       <c r="Y46" s="11"/>
       <c r="Z46" s="11"/>
     </row>
-    <row r="47" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>40</v>
       </c>
@@ -4664,10 +4666,10 @@
       <c r="C47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="35" t="s">
         <v>62</v>
       </c>
       <c r="F47" s="11"/>
@@ -4692,7 +4694,7 @@
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
     </row>
-    <row r="48" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>41</v>
       </c>
@@ -4702,8 +4704,8 @@
       <c r="C48" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="34"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -4726,7 +4728,7 @@
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
     </row>
-    <row r="49" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>42</v>
       </c>
@@ -4736,8 +4738,8 @@
       <c r="C49" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="35"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="37"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -4760,7 +4762,7 @@
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
     </row>
-    <row r="50" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>43</v>
       </c>
@@ -4770,10 +4772,10 @@
       <c r="C50" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="35" t="s">
         <v>66</v>
       </c>
       <c r="F50" s="11"/>
@@ -4806,8 +4808,8 @@
       <c r="C51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="34"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="36"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
@@ -4830,7 +4832,7 @@
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
     </row>
-    <row r="52" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>44</v>
       </c>
@@ -4840,8 +4842,8 @@
       <c r="C52" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="35"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="37"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
@@ -4874,10 +4876,10 @@
       <c r="C53" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="35" t="s">
         <v>69</v>
       </c>
       <c r="F53" s="11"/>
@@ -4885,7 +4887,7 @@
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="84"/>
+      <c r="K53" s="30"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
@@ -4912,8 +4914,8 @@
       <c r="C54" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="34"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
@@ -4936,7 +4938,7 @@
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
     </row>
-    <row r="55" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>47</v>
       </c>
@@ -4946,8 +4948,8 @@
       <c r="C55" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="35"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="37"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -4970,7 +4972,7 @@
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
     </row>
-    <row r="56" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>48</v>
       </c>
@@ -4980,10 +4982,10 @@
       <c r="C56" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="35" t="s">
         <v>73</v>
       </c>
       <c r="F56" s="11"/>
@@ -5008,7 +5010,7 @@
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
     </row>
-    <row r="57" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>49</v>
       </c>
@@ -5018,8 +5020,8 @@
       <c r="C57" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="34"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="36"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -5042,7 +5044,7 @@
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
     </row>
-    <row r="58" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>50</v>
       </c>
@@ -5052,8 +5054,8 @@
       <c r="C58" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="35"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="37"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -5086,10 +5088,10 @@
       <c r="C59" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="33" t="s">
+      <c r="E59" s="35" t="s">
         <v>77</v>
       </c>
       <c r="F59" s="11"/>
@@ -5124,8 +5126,8 @@
       <c r="C60" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="34"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -5148,7 +5150,7 @@
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
     </row>
-    <row r="61" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>53</v>
       </c>
@@ -5158,8 +5160,8 @@
       <c r="C61" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="35"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="37"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -5192,10 +5194,10 @@
       <c r="C62" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="D62" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="33" t="s">
+      <c r="E62" s="35" t="s">
         <v>81</v>
       </c>
       <c r="F62" s="11"/>
@@ -5230,8 +5232,8 @@
       <c r="C63" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="34"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="36"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -5254,7 +5256,7 @@
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
     </row>
-    <row r="64" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>56</v>
       </c>
@@ -5264,8 +5266,8 @@
       <c r="C64" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="35"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="37"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
@@ -5288,7 +5290,7 @@
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
     </row>
-    <row r="65" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>57</v>
       </c>
@@ -5298,10 +5300,10 @@
       <c r="C65" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="30" t="s">
+      <c r="D65" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E65" s="33" t="s">
+      <c r="E65" s="35" t="s">
         <v>30</v>
       </c>
       <c r="F65" s="11"/>
@@ -5326,7 +5328,7 @@
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
     </row>
-    <row r="66" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>58</v>
       </c>
@@ -5336,8 +5338,8 @@
       <c r="C66" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="34"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="36"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -5360,7 +5362,7 @@
       <c r="Y66" s="11"/>
       <c r="Z66" s="11"/>
     </row>
-    <row r="67" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>59</v>
       </c>
@@ -5370,8 +5372,8 @@
       <c r="C67" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="35"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="37"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -5394,7 +5396,7 @@
       <c r="Y67" s="11"/>
       <c r="Z67" s="11"/>
     </row>
-    <row r="68" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>60</v>
       </c>
@@ -5404,10 +5406,10 @@
       <c r="C68" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="30" t="s">
+      <c r="D68" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="E68" s="33" t="s">
+      <c r="E68" s="35" t="s">
         <v>88</v>
       </c>
       <c r="F68" s="11"/>
@@ -5442,8 +5444,8 @@
       <c r="C69" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="34"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="36"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -5476,8 +5478,8 @@
       <c r="C70" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="35"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="37"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -5500,7 +5502,7 @@
       <c r="Y70" s="11"/>
       <c r="Z70" s="11"/>
     </row>
-    <row r="71" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>63</v>
       </c>
@@ -5510,10 +5512,10 @@
       <c r="C71" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E71" s="33" t="s">
+      <c r="E71" s="35" t="s">
         <v>91</v>
       </c>
       <c r="F71" s="11"/>
@@ -5538,7 +5540,7 @@
       <c r="Y71" s="11"/>
       <c r="Z71" s="11"/>
     </row>
-    <row r="72" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>64</v>
       </c>
@@ -5548,8 +5550,8 @@
       <c r="C72" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="31"/>
-      <c r="E72" s="34"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="36"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
@@ -5572,7 +5574,7 @@
       <c r="Y72" s="11"/>
       <c r="Z72" s="11"/>
     </row>
-    <row r="73" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>65</v>
       </c>
@@ -5582,8 +5584,8 @@
       <c r="C73" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D73" s="32"/>
-      <c r="E73" s="35"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="37"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -5606,7 +5608,7 @@
       <c r="Y73" s="11"/>
       <c r="Z73" s="11"/>
     </row>
-    <row r="74" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>66</v>
       </c>
@@ -5616,10 +5618,10 @@
       <c r="C74" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="35" t="s">
         <v>95</v>
       </c>
       <c r="F74" s="11"/>
@@ -5644,7 +5646,7 @@
       <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
     </row>
-    <row r="75" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>67</v>
       </c>
@@ -5654,8 +5656,8 @@
       <c r="C75" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="34"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="36"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -5688,8 +5690,8 @@
       <c r="C76" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D76" s="32"/>
-      <c r="E76" s="35"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="37"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
@@ -5712,7 +5714,7 @@
       <c r="Y76" s="11"/>
       <c r="Z76" s="11"/>
     </row>
-    <row r="77" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>69</v>
       </c>
@@ -5722,10 +5724,10 @@
       <c r="C77" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D77" s="30" t="s">
+      <c r="D77" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="E77" s="33" t="s">
+      <c r="E77" s="35" t="s">
         <v>99</v>
       </c>
       <c r="F77" s="11"/>
@@ -5752,16 +5754,16 @@
     </row>
     <row r="78" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B78" s="7">
-        <v>2410993190</v>
+        <v>2410993217</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="37"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -5786,16 +5788,20 @@
     </row>
     <row r="79" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
-        <v>71</v>
-      </c>
-      <c r="B79" s="7">
-        <v>2410993217</v>
-      </c>
-      <c r="C79" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="8">
+        <v>2410993179</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="35"/>
+      <c r="D79" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="35" t="s">
+        <v>102</v>
+      </c>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
@@ -5818,22 +5824,18 @@
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
     </row>
-    <row r="80" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B80" s="8">
-        <v>2410993179</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D80" s="30" t="s">
+        <v>2410992741</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E80" s="33" t="s">
-        <v>103</v>
-      </c>
+      <c r="D80" s="33"/>
+      <c r="E80" s="36"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -5856,18 +5858,18 @@
       <c r="Y80" s="11"/>
       <c r="Z80" s="11"/>
     </row>
-    <row r="81" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B81" s="8">
-        <v>2410992741</v>
+        <v>2410993169</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D81" s="31"/>
-      <c r="E81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="37"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -5890,18 +5892,22 @@
       <c r="Y81" s="11"/>
       <c r="Z81" s="11"/>
     </row>
-    <row r="82" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B82" s="8">
-        <v>2410993169</v>
-      </c>
-      <c r="C82" s="8" t="s">
+        <v>2410993237</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D82" s="32"/>
-      <c r="E82" s="35"/>
+      <c r="D82" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>106</v>
+      </c>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -5924,22 +5930,18 @@
       <c r="Y82" s="11"/>
       <c r="Z82" s="11"/>
     </row>
-    <row r="83" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B83" s="8">
-        <v>2410993237</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" s="30" t="s">
+        <v>2410993235</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E83" s="33" t="s">
-        <v>107</v>
-      </c>
+      <c r="D83" s="33"/>
+      <c r="E83" s="36"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -5962,18 +5964,18 @@
       <c r="Y83" s="11"/>
       <c r="Z83" s="11"/>
     </row>
-    <row r="84" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B84" s="8">
-        <v>2410993235</v>
+        <v>2410993167</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="37"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -5996,18 +5998,12 @@
       <c r="Y84" s="11"/>
       <c r="Z84" s="11"/>
     </row>
-    <row r="85" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="6">
-        <v>77</v>
-      </c>
-      <c r="B85" s="8">
-        <v>2410993167</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" s="32"/>
-      <c r="E85" s="35"/>
+    <row r="85" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -31622,46 +31618,18 @@
       <c r="Y999" s="11"/>
       <c r="Z999" s="11"/>
     </row>
-    <row r="1000" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1000" s="11"/>
-      <c r="B1000" s="11"/>
-      <c r="C1000" s="11"/>
-      <c r="D1000" s="11"/>
-      <c r="E1000" s="11"/>
-      <c r="F1000" s="11"/>
-      <c r="G1000" s="11"/>
-      <c r="H1000" s="11"/>
-      <c r="I1000" s="11"/>
-      <c r="J1000" s="11"/>
-      <c r="K1000" s="11"/>
-      <c r="L1000" s="11"/>
-      <c r="M1000" s="11"/>
-      <c r="N1000" s="11"/>
-      <c r="O1000" s="11"/>
-      <c r="P1000" s="11"/>
-      <c r="Q1000" s="11"/>
-      <c r="R1000" s="11"/>
-      <c r="S1000" s="11"/>
-      <c r="T1000" s="11"/>
-      <c r="U1000" s="11"/>
-      <c r="V1000" s="11"/>
-      <c r="W1000" s="11"/>
-      <c r="X1000" s="11"/>
-      <c r="Y1000" s="11"/>
-      <c r="Z1000" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
     <mergeCell ref="D71:D73"/>
     <mergeCell ref="E71:E73"/>
     <mergeCell ref="D74:D76"/>
     <mergeCell ref="E74:E76"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
     <mergeCell ref="D62:D64"/>
     <mergeCell ref="E62:E64"/>
     <mergeCell ref="D65:D67"/>
@@ -31719,8 +31687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA48A416-6B8D-45D3-B240-7A4F2189D3CD}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31733,13 +31701,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
@@ -31761,13 +31729,13 @@
       <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -31789,13 +31757,13 @@
       <c r="Z2" s="11"/>
     </row>
     <row r="3" spans="1:26" ht="46.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -31819,11 +31787,11 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
@@ -31847,13 +31815,13 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -31877,8 +31845,8 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="1:26" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
@@ -31912,7 +31880,7 @@
       </c>
       <c r="B7" s="78"/>
       <c r="C7" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="79" t="s">
         <v>5</v>
@@ -31978,7 +31946,7 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
     </row>
-    <row r="9" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="26">
         <v>1</v>
       </c>
@@ -31986,13 +31954,13 @@
         <v>2410993247</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>196</v>
-      </c>
       <c r="E9" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -32016,7 +31984,7 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
     </row>
-    <row r="10" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="26">
         <v>2</v>
       </c>
@@ -32024,9 +31992,9 @@
         <v>2410993304</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="31"/>
+        <v>196</v>
+      </c>
+      <c r="D10" s="33"/>
       <c r="E10" s="82"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -32050,7 +32018,7 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
     </row>
-    <row r="11" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26">
         <v>3</v>
       </c>
@@ -32058,9 +32026,9 @@
         <v>2410993266</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="32"/>
+        <v>197</v>
+      </c>
+      <c r="D11" s="34"/>
       <c r="E11" s="83"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -32084,7 +32052,7 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
     </row>
-    <row r="12" spans="1:26" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="26">
         <v>4</v>
       </c>
@@ -32092,13 +32060,13 @@
         <v>2410993328</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="74" t="s">
-        <v>199</v>
+      <c r="E12" s="84" t="s">
+        <v>198</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -32122,7 +32090,7 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
     </row>
-    <row r="13" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="26">
         <v>5</v>
       </c>
@@ -32130,10 +32098,10 @@
         <v>2410993269</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="75"/>
+        <v>200</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -32156,7 +32124,7 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
     </row>
-    <row r="14" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="26">
         <v>6</v>
       </c>
@@ -32164,10 +32132,10 @@
         <v>2410993257</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="76"/>
+        <v>201</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="86"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -32198,13 +32166,13 @@
         <v>2410993303</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="74" t="s">
-        <v>203</v>
+      <c r="E15" s="84" t="s">
+        <v>202</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -32236,10 +32204,10 @@
         <v>2410993268</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="75"/>
+        <v>204</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -32262,7 +32230,7 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
     </row>
-    <row r="17" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26">
         <v>9</v>
       </c>
@@ -32270,10 +32238,10 @@
         <v>2410993265</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="76"/>
+        <v>205</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="86"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -32296,7 +32264,7 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
     </row>
-    <row r="18" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26">
         <v>10</v>
       </c>
@@ -32304,13 +32272,13 @@
         <v>2410993272</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="74" t="s">
-        <v>207</v>
+      <c r="E18" s="84" t="s">
+        <v>206</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -32334,16 +32302,18 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
     </row>
-    <row r="19" spans="1:26" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="28"/>
+    <row r="19" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="26">
+        <v>11</v>
+      </c>
       <c r="B19" s="8">
         <v>2410993280</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="75"/>
+        <v>208</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -32366,18 +32336,18 @@
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
     </row>
-    <row r="20" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" s="27">
         <v>2410993275</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="76"/>
+        <v>209</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="86"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -32400,21 +32370,21 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
     </row>
-    <row r="21" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" s="9">
         <v>2410993261</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="E21" s="74" t="s">
-        <v>211</v>
+      <c r="E21" s="84" t="s">
+        <v>210</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -32438,18 +32408,18 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
     </row>
-    <row r="22" spans="1:26" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="27">
         <v>2410993260</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="75"/>
+        <v>212</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="85"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -32472,18 +32442,18 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
     </row>
-    <row r="23" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="27">
         <v>2410993291</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="76"/>
+        <v>213</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="86"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -32508,19 +32478,19 @@
     </row>
     <row r="24" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="9">
         <v>2410993302</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>215</v>
+      <c r="E24" s="84" t="s">
+        <v>214</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -32544,18 +32514,18 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
     </row>
-    <row r="25" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="27">
         <v>2410993273</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="75"/>
+        <v>216</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="85"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -32578,18 +32548,18 @@
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
     </row>
-    <row r="26" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="27">
         <v>2410993312</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="76"/>
+        <v>217</v>
+      </c>
+      <c r="D26" s="34"/>
+      <c r="E26" s="86"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -32612,21 +32582,21 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
     </row>
-    <row r="27" spans="1:26" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="9">
         <v>2410993251</v>
       </c>
       <c r="C27" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>219</v>
+      <c r="E27" s="84" t="s">
+        <v>218</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -32650,18 +32620,18 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
     </row>
-    <row r="28" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="27">
         <v>2410993316</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="75"/>
+        <v>220</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -32684,18 +32654,18 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
     </row>
-    <row r="29" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" s="27">
         <v>2410993287</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="76"/>
+        <v>221</v>
+      </c>
+      <c r="D29" s="34"/>
+      <c r="E29" s="86"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -32718,21 +32688,21 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
     </row>
-    <row r="30" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="26">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" s="9">
         <v>2410993313</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="E30" s="74" t="s">
-        <v>223</v>
+      <c r="E30" s="84" t="s">
+        <v>222</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -32756,18 +32726,18 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
     </row>
-    <row r="31" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="26">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31" s="27">
         <v>2410993315</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="75"/>
+        <v>224</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="85"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -32792,16 +32762,16 @@
     </row>
     <row r="32" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" s="27">
         <v>2410993314</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="76"/>
+        <v>225</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="86"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -32824,21 +32794,21 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
     </row>
-    <row r="33" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" s="9">
         <v>2410993277</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="E33" s="74" t="s">
-        <v>227</v>
+      <c r="E33" s="84" t="s">
+        <v>226</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -32862,18 +32832,18 @@
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
     </row>
-    <row r="34" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" s="27">
         <v>2410993305</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="75"/>
+        <v>228</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="85"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -32896,18 +32866,18 @@
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
     </row>
-    <row r="35" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" s="27">
         <v>2410993276</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="76"/>
+        <v>229</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="86"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -32930,21 +32900,21 @@
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
     </row>
-    <row r="36" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B36" s="9">
         <v>2410993309</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="E36" s="74" t="s">
-        <v>231</v>
+      <c r="E36" s="84" t="s">
+        <v>230</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -32970,16 +32940,16 @@
     </row>
     <row r="37" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="26">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" s="27">
         <v>2410993250</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="75"/>
+        <v>232</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="85"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -33002,18 +32972,18 @@
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
     </row>
-    <row r="38" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="26">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" s="27">
         <v>2410993286</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="76"/>
+        <v>233</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="86"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -33038,19 +33008,19 @@
     </row>
     <row r="39" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="26">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" s="9">
         <v>2410993267</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="E39" s="74" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="84" t="s">
+        <v>204</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -33074,18 +33044,18 @@
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
     </row>
-    <row r="40" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="26">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" s="27">
         <v>2410993264</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="75"/>
+        <v>235</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="85"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -33110,16 +33080,16 @@
     </row>
     <row r="41" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="26">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="27">
         <v>2410993283</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="76"/>
+        <v>236</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="86"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -33142,21 +33112,21 @@
       <c r="Y41" s="11"/>
       <c r="Z41" s="11"/>
     </row>
-    <row r="42" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="26">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B42" s="9">
         <v>2410993329</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="D42" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>238</v>
+      <c r="E42" s="35" t="s">
+        <v>237</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -33180,18 +33150,18 @@
       <c r="Y42" s="11"/>
       <c r="Z42" s="11"/>
     </row>
-    <row r="43" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="26">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B43" s="27">
         <v>2410993262</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="35"/>
+        <v>239</v>
+      </c>
+      <c r="D43" s="55"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -33216,19 +33186,19 @@
     </row>
     <row r="44" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="26">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" s="9">
         <v>2410993297</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="D44" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="E44" s="74" t="s">
-        <v>241</v>
+      <c r="E44" s="84" t="s">
+        <v>240</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -33252,18 +33222,18 @@
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
     </row>
-    <row r="45" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="26">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" s="27">
         <v>2410993290</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="75"/>
+        <v>242</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="85"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -33286,18 +33256,18 @@
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
     </row>
-    <row r="46" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="26">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B46" s="27">
         <v>2410993248</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="76"/>
+        <v>243</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="86"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -33320,21 +33290,21 @@
       <c r="Y46" s="11"/>
       <c r="Z46" s="11"/>
     </row>
-    <row r="47" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="26">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B47" s="9">
         <v>2410993274</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="D47" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="E47" s="74" t="s">
-        <v>245</v>
+      <c r="E47" s="84" t="s">
+        <v>244</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -33360,16 +33330,16 @@
     </row>
     <row r="48" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="26">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48" s="27">
         <v>2410993271</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="75"/>
+        <v>246</v>
+      </c>
+      <c r="D48" s="54"/>
+      <c r="E48" s="85"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -33392,18 +33362,18 @@
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
     </row>
-    <row r="49" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="26">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B49" s="27">
         <v>2410993299</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="76"/>
+        <v>247</v>
+      </c>
+      <c r="D49" s="55"/>
+      <c r="E49" s="86"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -33426,28 +33396,28 @@
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
     </row>
-    <row r="50" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="26">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" s="9">
         <v>2410993263</v>
       </c>
       <c r="C50" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="D50" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="E50" s="74" t="s">
-        <v>249</v>
+      <c r="E50" s="84" t="s">
+        <v>248</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="84"/>
+      <c r="K50" s="30"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -33464,18 +33434,18 @@
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
     </row>
-    <row r="51" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="26">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B51" s="27">
         <v>2410993320</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="75"/>
+        <v>250</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="85"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
@@ -33498,18 +33468,18 @@
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
     </row>
-    <row r="52" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="26">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" s="27">
         <v>2410993285</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="76"/>
+        <v>251</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="86"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
@@ -33532,21 +33502,21 @@
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
     </row>
-    <row r="53" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="26">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" s="9">
         <v>2410993296</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="E53" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="84" t="s">
+        <v>252</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -33570,18 +33540,18 @@
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
     </row>
-    <row r="54" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="26">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" s="27">
         <v>2410993292</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="75"/>
+        <v>253</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="85"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
@@ -33604,18 +33574,18 @@
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
     </row>
-    <row r="55" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="26">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" s="27">
         <v>2410993294</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="D55" s="32"/>
-      <c r="E55" s="76"/>
+        <v>254</v>
+      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="86"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -33638,21 +33608,21 @@
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
     </row>
-    <row r="56" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="26">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" s="9">
         <v>2410993321</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D56" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="E56" s="74" t="s">
-        <v>256</v>
+      <c r="E56" s="84" t="s">
+        <v>255</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -33676,18 +33646,18 @@
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
     </row>
-    <row r="57" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="26">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" s="27">
         <v>2410993319</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="75"/>
+        <v>257</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="85"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -33712,16 +33682,16 @@
     </row>
     <row r="58" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="26">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B58" s="27">
         <v>2410993298</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="76"/>
+        <v>258</v>
+      </c>
+      <c r="D58" s="34"/>
+      <c r="E58" s="86"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -33744,21 +33714,21 @@
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
     </row>
-    <row r="59" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="26">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" s="9">
         <v>2410993307</v>
       </c>
       <c r="C59" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="D59" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="E59" s="74" t="s">
-        <v>260</v>
+      <c r="E59" s="84" t="s">
+        <v>259</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
@@ -33784,16 +33754,16 @@
     </row>
     <row r="60" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="26">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" s="27">
         <v>2410993324</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="75"/>
+        <v>261</v>
+      </c>
+      <c r="D60" s="33"/>
+      <c r="E60" s="85"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -33816,18 +33786,18 @@
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
     </row>
-    <row r="61" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B61" s="27">
         <v>2410993256</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="D61" s="32"/>
-      <c r="E61" s="76"/>
+        <v>262</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="86"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -33852,19 +33822,19 @@
     </row>
     <row r="62" spans="1:26" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="26">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B62" s="9">
         <v>2410993301</v>
       </c>
       <c r="C62" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D62" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="D62" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="E62" s="74" t="s">
-        <v>264</v>
+      <c r="E62" s="84" t="s">
+        <v>263</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
@@ -33890,16 +33860,16 @@
     </row>
     <row r="63" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="26">
-        <v>54</v>
-      </c>
-      <c r="B63" s="89">
+        <v>55</v>
+      </c>
+      <c r="B63" s="31">
         <v>2410993090</v>
       </c>
-      <c r="C63" s="89" t="s">
-        <v>288</v>
-      </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="75"/>
+      <c r="C63" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="D63" s="33"/>
+      <c r="E63" s="85"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -33922,18 +33892,18 @@
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
     </row>
-    <row r="64" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="26">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B64" s="27">
         <v>2410993293</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="76"/>
+        <v>265</v>
+      </c>
+      <c r="D64" s="34"/>
+      <c r="E64" s="86"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
@@ -33956,21 +33926,21 @@
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
     </row>
-    <row r="65" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="26">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B65" s="9">
         <v>2410993255</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="E65" s="74" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E65" s="84" t="s">
+        <v>266</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
@@ -33994,18 +33964,18 @@
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
     </row>
-    <row r="66" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="26">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B66" s="27">
         <v>2410993279</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="75"/>
+        <v>267</v>
+      </c>
+      <c r="D66" s="33"/>
+      <c r="E66" s="85"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -34030,16 +34000,16 @@
     </row>
     <row r="67" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="26">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B67" s="27">
         <v>2410992842</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="76"/>
+        <v>268</v>
+      </c>
+      <c r="D67" s="34"/>
+      <c r="E67" s="86"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -34064,19 +34034,19 @@
     </row>
     <row r="68" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B68" s="9">
         <v>2410993253</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D68" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="E68" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="84" t="s">
+        <v>269</v>
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
@@ -34100,18 +34070,18 @@
       <c r="Y68" s="11"/>
       <c r="Z68" s="11"/>
     </row>
-    <row r="69" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="26">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B69" s="27">
         <v>2410993278</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="75"/>
+        <v>270</v>
+      </c>
+      <c r="D69" s="33"/>
+      <c r="E69" s="85"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -34134,18 +34104,18 @@
       <c r="Y69" s="11"/>
       <c r="Z69" s="11"/>
     </row>
-    <row r="70" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B70" s="27">
         <v>2410993311</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="D70" s="32"/>
-      <c r="E70" s="76"/>
+        <v>271</v>
+      </c>
+      <c r="D70" s="34"/>
+      <c r="E70" s="86"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -34168,21 +34138,21 @@
       <c r="Y70" s="11"/>
       <c r="Z70" s="11"/>
     </row>
-    <row r="71" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="26">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B71" s="9">
         <v>2410993317</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="E71" s="74" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" s="84" t="s">
+        <v>272</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
@@ -34208,16 +34178,16 @@
     </row>
     <row r="72" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="26">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B72" s="27">
         <v>2410993281</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="D72" s="31"/>
-      <c r="E72" s="75"/>
+        <v>273</v>
+      </c>
+      <c r="D72" s="33"/>
+      <c r="E72" s="85"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
@@ -34240,18 +34210,18 @@
       <c r="Y72" s="11"/>
       <c r="Z72" s="11"/>
     </row>
-    <row r="73" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="26">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B73" s="27">
         <v>2410993295</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="D73" s="32"/>
-      <c r="E73" s="76"/>
+        <v>274</v>
+      </c>
+      <c r="D73" s="34"/>
+      <c r="E73" s="86"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -34274,21 +34244,21 @@
       <c r="Y73" s="11"/>
       <c r="Z73" s="11"/>
     </row>
-    <row r="74" spans="1:26" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="26">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B74" s="9">
         <v>2410993246</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D74" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="E74" s="74" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="D74" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="84" t="s">
+        <v>275</v>
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
@@ -34312,18 +34282,18 @@
       <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
     </row>
-    <row r="75" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="26">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B75" s="27">
         <v>2410993326</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="D75" s="41"/>
-      <c r="E75" s="76"/>
+        <v>276</v>
+      </c>
+      <c r="D75" s="55"/>
+      <c r="E75" s="86"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -34346,21 +34316,21 @@
       <c r="Y75" s="11"/>
       <c r="Z75" s="11"/>
     </row>
-    <row r="76" spans="1:26" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="26">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B76" s="9">
         <v>2410993259</v>
       </c>
       <c r="C76" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D76" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="D76" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="E76" s="74" t="s">
-        <v>278</v>
+      <c r="E76" s="84" t="s">
+        <v>277</v>
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -34384,18 +34354,18 @@
       <c r="Y76" s="11"/>
       <c r="Z76" s="11"/>
     </row>
-    <row r="77" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="26">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B77" s="27">
         <v>2410993282</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="D77" s="31"/>
-      <c r="E77" s="75"/>
+        <v>279</v>
+      </c>
+      <c r="D77" s="33"/>
+      <c r="E77" s="85"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
@@ -34418,18 +34388,18 @@
       <c r="Y77" s="11"/>
       <c r="Z77" s="11"/>
     </row>
-    <row r="78" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="26">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B78" s="27">
         <v>2410993288</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D78" s="32"/>
-      <c r="E78" s="76"/>
+        <v>280</v>
+      </c>
+      <c r="D78" s="34"/>
+      <c r="E78" s="86"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -34454,19 +34424,19 @@
     </row>
     <row r="79" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="26">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B79" s="24">
         <v>2410993252</v>
       </c>
       <c r="C79" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="D79" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="D79" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="E79" s="74" t="s">
-        <v>282</v>
+      <c r="E79" s="84" t="s">
+        <v>281</v>
       </c>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
@@ -34490,18 +34460,18 @@
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
     </row>
-    <row r="80" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="26">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B80" s="29">
         <v>2410993254</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="75"/>
+        <v>283</v>
+      </c>
+      <c r="D80" s="33"/>
+      <c r="E80" s="85"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -34526,16 +34496,16 @@
     </row>
     <row r="81" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="26">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B81" s="29">
         <v>2410993258</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="D81" s="32"/>
-      <c r="E81" s="76"/>
+        <v>284</v>
+      </c>
+      <c r="D81" s="34"/>
+      <c r="E81" s="86"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -34558,21 +34528,21 @@
       <c r="Y81" s="11"/>
       <c r="Z81" s="11"/>
     </row>
-    <row r="82" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="26">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B82" s="24">
         <v>2410993289</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="D82" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="E82" s="74" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="D82" s="87" t="s">
+        <v>169</v>
+      </c>
+      <c r="E82" s="84" t="s">
+        <v>285</v>
       </c>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
@@ -34596,18 +34566,18 @@
       <c r="Y82" s="11"/>
       <c r="Z82" s="11"/>
     </row>
-    <row r="83" spans="1:26" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="26">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B83" s="29">
         <v>2410993325</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="D83" s="72"/>
-      <c r="E83" s="75"/>
+        <v>286</v>
+      </c>
+      <c r="D83" s="88"/>
+      <c r="E83" s="85"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -34631,11 +34601,11 @@
       <c r="Z83" s="11"/>
     </row>
     <row r="84" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="28"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="76"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="86"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
